--- a/SpecFramework/FeatureFiles/DataResources/APIData.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/APIData.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
